--- a/data/semana_combustible_new_date.xlsx
+++ b/data/semana_combustible_new_date.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5AEA2-387B-4CDB-A446-5FAB7C7C951D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2D659-B562-4157-BD2A-68B08548149D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -128,6 +128,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
+      <selection activeCell="A1019" sqref="A1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -42339,107 +42340,731 @@
       <c r="A1006" s="2">
         <v>44006</v>
       </c>
-      <c r="L1006">
+      <c r="B1006" s="3">
+        <v>201.1</v>
+      </c>
+      <c r="C1006" s="3">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="D1006" s="3">
+        <v>186.7</v>
+      </c>
+      <c r="E1006" s="3">
+        <v>75.17</v>
+      </c>
+      <c r="F1006" s="3">
+        <v>109.4</v>
+      </c>
+      <c r="G1006" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="H1006" s="3">
+        <v>151.9</v>
+      </c>
+      <c r="I1006" s="3">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="J1006" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="K1006" s="3">
+        <v>68.17</v>
+      </c>
+      <c r="L1006" s="3">
         <v>29.97</v>
+      </c>
+      <c r="M1006" s="3">
+        <v>133</v>
+      </c>
+      <c r="N1006" s="3">
+        <v>58.159280000000003</v>
+      </c>
+      <c r="O1006" s="3">
+        <v>58.234999999999999</v>
+      </c>
+      <c r="P1006" s="3">
+        <v>39.22</v>
+      </c>
+      <c r="Q1006" s="3">
+        <v>41.694000000000003</v>
+      </c>
+      <c r="R1006" s="3">
+        <v>2.129</v>
       </c>
     </row>
     <row r="1007" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1007" s="2">
         <v>44013</v>
       </c>
-      <c r="L1007">
+      <c r="B1007" s="3">
+        <v>204.1</v>
+      </c>
+      <c r="C1007" s="3">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="D1007" s="3">
+        <v>192.2</v>
+      </c>
+      <c r="E1007" s="3">
+        <v>80.09</v>
+      </c>
+      <c r="F1007" s="3">
+        <v>113.7</v>
+      </c>
+      <c r="G1007" s="3">
+        <v>99</v>
+      </c>
+      <c r="H1007" s="3">
+        <v>156.5</v>
+      </c>
+      <c r="I1007" s="3">
+        <v>145</v>
+      </c>
+      <c r="J1007" s="3">
+        <v>106.3</v>
+      </c>
+      <c r="K1007" s="3">
+        <v>68.95</v>
+      </c>
+      <c r="L1007" s="3">
         <v>29.97</v>
+      </c>
+      <c r="M1007" s="3">
+        <v>137.4</v>
+      </c>
+      <c r="N1007" s="3">
+        <v>58.181820000000002</v>
+      </c>
+      <c r="O1007" s="3">
+        <v>58.257460000000002</v>
+      </c>
+      <c r="P1007" s="3">
+        <v>39.847499999999997</v>
+      </c>
+      <c r="Q1007" s="3">
+        <v>42.302</v>
+      </c>
+      <c r="R1007" s="3">
+        <v>2.1739999999999999</v>
       </c>
     </row>
     <row r="1008" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1008" s="2">
         <v>44020</v>
       </c>
-      <c r="L1008">
+      <c r="B1008" s="3">
+        <v>204.3</v>
+      </c>
+      <c r="C1008" s="3">
+        <v>80.66</v>
+      </c>
+      <c r="D1008" s="3">
+        <v>193.5</v>
+      </c>
+      <c r="E1008" s="3">
+        <v>81.12</v>
+      </c>
+      <c r="F1008" s="3">
+        <v>110.3</v>
+      </c>
+      <c r="G1008" s="3">
+        <v>98</v>
+      </c>
+      <c r="H1008" s="3">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="I1008" s="3">
+        <v>146.9</v>
+      </c>
+      <c r="J1008" s="3">
+        <v>103</v>
+      </c>
+      <c r="K1008" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L1008" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1008" s="3">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="N1008" s="3">
+        <v>58.204149999999998</v>
+      </c>
+      <c r="O1008" s="3">
+        <v>58.280349999999999</v>
+      </c>
+      <c r="P1008" s="3">
+        <v>40.442</v>
+      </c>
+      <c r="Q1008" s="3">
+        <v>43.06</v>
+      </c>
+      <c r="R1008" s="3">
+        <v>2.177</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1009" s="2">
         <v>44027</v>
       </c>
-      <c r="L1009">
+      <c r="B1009" s="3">
+        <v>208.3</v>
+      </c>
+      <c r="C1009" s="3">
+        <v>84.28</v>
+      </c>
+      <c r="D1009" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="E1009" s="3">
+        <v>85.61</v>
+      </c>
+      <c r="F1009" s="3">
+        <v>114</v>
+      </c>
+      <c r="G1009" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="H1009" s="3">
+        <v>163.1</v>
+      </c>
+      <c r="I1009" s="3">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="J1009" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="K1009" s="3">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="L1009" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1009" s="3">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="N1009" s="3">
+        <v>58.25338</v>
+      </c>
+      <c r="O1009" s="3">
+        <v>58.328740000000003</v>
+      </c>
+      <c r="P1009" s="3">
+        <v>40.57</v>
+      </c>
+      <c r="Q1009" s="3">
+        <v>43.404000000000003</v>
+      </c>
+      <c r="R1009" s="3">
+        <v>2.1949999999999998</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1010" s="2">
         <v>44034</v>
       </c>
-      <c r="L1010">
+      <c r="B1010" s="3">
+        <v>207.1</v>
+      </c>
+      <c r="C1010" s="3">
+        <v>83.41</v>
+      </c>
+      <c r="D1010" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="E1010" s="3">
+        <v>84.83</v>
+      </c>
+      <c r="F1010" s="3">
+        <v>115</v>
+      </c>
+      <c r="G1010" s="3">
+        <v>105.6</v>
+      </c>
+      <c r="H1010" s="3">
+        <v>163</v>
+      </c>
+      <c r="I1010" s="3">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="J1010" s="3">
+        <v>107.6</v>
+      </c>
+      <c r="K1010" s="3">
+        <v>70.069999999999894</v>
+      </c>
+      <c r="L1010" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1010" s="3">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="N1010" s="3">
+        <v>58.305660000000003</v>
+      </c>
+      <c r="O1010" s="3">
+        <v>58.381599999999999</v>
+      </c>
+      <c r="P1010" s="3">
+        <v>41.338000000000001</v>
+      </c>
+      <c r="Q1010" s="3">
+        <v>43.567999999999998</v>
+      </c>
+      <c r="R1010" s="3">
+        <v>2.1859999999999999</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1011" s="2">
         <v>44041</v>
       </c>
-      <c r="L1011">
+      <c r="B1011" s="3">
+        <v>205.2</v>
+      </c>
+      <c r="C1011" s="3">
+        <v>81.78</v>
+      </c>
+      <c r="D1011" s="3">
+        <v>194.8</v>
+      </c>
+      <c r="E1011" s="3">
+        <v>82.58</v>
+      </c>
+      <c r="F1011" s="3">
+        <v>116.4</v>
+      </c>
+      <c r="G1011" s="3">
+        <v>101</v>
+      </c>
+      <c r="H1011" s="3">
+        <v>164.2</v>
+      </c>
+      <c r="I1011" s="3">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="J1011" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="K1011" s="3">
+        <v>72.22</v>
+      </c>
+      <c r="L1011" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1011" s="3">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="N1011" s="3">
+        <v>58.361699999999999</v>
+      </c>
+      <c r="O1011" s="3">
+        <v>58.437800000000003</v>
+      </c>
+      <c r="P1011" s="3">
+        <v>40.686</v>
+      </c>
+      <c r="Q1011" s="3">
+        <v>43.223999999999997</v>
+      </c>
+      <c r="R1011" s="3">
+        <v>2.1749999999999998</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1012" s="2">
         <v>44048</v>
       </c>
-      <c r="L1012">
+      <c r="B1012" s="3">
+        <v>205.5</v>
+      </c>
+      <c r="C1012" s="3">
+        <v>81.95</v>
+      </c>
+      <c r="D1012" s="3">
+        <v>195.2</v>
+      </c>
+      <c r="E1012" s="3">
+        <v>82.76</v>
+      </c>
+      <c r="F1012" s="3">
+        <v>117.6</v>
+      </c>
+      <c r="G1012" s="3">
+        <v>101</v>
+      </c>
+      <c r="H1012" s="3">
+        <v>164.6</v>
+      </c>
+      <c r="I1012" s="3">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="J1012" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="K1012" s="3">
+        <v>73.17</v>
+      </c>
+      <c r="L1012" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1012" s="3">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="N1012" s="3">
+        <v>58.366540000000001</v>
+      </c>
+      <c r="O1012" s="3">
+        <v>58.482439999999997</v>
+      </c>
+      <c r="P1012" s="3">
+        <v>41.567999999999998</v>
+      </c>
+      <c r="Q1012" s="3">
+        <v>44.356000000000002</v>
+      </c>
+      <c r="R1012" s="3">
+        <v>2.1760000000000002</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1013" s="2">
         <v>44055</v>
       </c>
-      <c r="L1013">
+      <c r="B1013" s="3">
+        <v>203.8</v>
+      </c>
+      <c r="C1013" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D1013" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="E1013" s="3">
+        <v>81.209999999999894</v>
+      </c>
+      <c r="F1013" s="3">
+        <v>116.8</v>
+      </c>
+      <c r="G1013" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="H1013" s="3">
+        <v>163.5</v>
+      </c>
+      <c r="I1013" s="3">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="J1013" s="3">
+        <v>111</v>
+      </c>
+      <c r="K1013" s="3">
+        <v>73</v>
+      </c>
+      <c r="L1013" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1013" s="3">
+        <v>140.9</v>
+      </c>
+      <c r="N1013" s="3">
+        <v>58.32546</v>
+      </c>
+      <c r="O1013" s="3">
+        <v>58.490160000000003</v>
+      </c>
+      <c r="P1013" s="3">
+        <v>41.933</v>
+      </c>
+      <c r="Q1013" s="3">
+        <v>44.515000000000001</v>
+      </c>
+      <c r="R1013" s="3">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1014" s="2">
         <v>44062</v>
       </c>
-      <c r="L1014">
+      <c r="B1014" s="3">
+        <v>206.6</v>
+      </c>
+      <c r="C1014" s="3">
+        <v>82.98</v>
+      </c>
+      <c r="D1014" s="3">
+        <v>196.3</v>
+      </c>
+      <c r="E1014" s="3">
+        <v>83.79</v>
+      </c>
+      <c r="F1014" s="3">
+        <v>117.5</v>
+      </c>
+      <c r="G1014" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="H1014" s="3">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="I1014" s="3">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="J1014" s="3">
+        <v>111.8</v>
+      </c>
+      <c r="K1014" s="3">
+        <v>73.69</v>
+      </c>
+      <c r="L1014" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1014" s="3">
+        <v>141.5</v>
+      </c>
+      <c r="N1014" s="3">
+        <v>58.392040000000001</v>
+      </c>
+      <c r="O1014" s="3">
+        <v>58.486179999999997</v>
+      </c>
+      <c r="P1014" s="3">
+        <v>42.725999999999999</v>
+      </c>
+      <c r="Q1014" s="3">
+        <v>44.792000000000002</v>
+      </c>
+      <c r="R1014" s="3">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1015" s="2">
         <v>44069</v>
       </c>
-      <c r="L1015">
+      <c r="B1015" s="3">
+        <v>206.6</v>
+      </c>
+      <c r="C1015" s="3">
+        <v>83.069999999999894</v>
+      </c>
+      <c r="D1015" s="3">
+        <v>196.3</v>
+      </c>
+      <c r="E1015" s="3">
+        <v>83.79</v>
+      </c>
+      <c r="F1015" s="3">
+        <v>117.5</v>
+      </c>
+      <c r="G1015" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="H1015" s="3">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="I1015" s="3">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="J1015" s="3">
+        <v>111.8</v>
+      </c>
+      <c r="K1015" s="3">
+        <v>73.69</v>
+      </c>
+      <c r="L1015" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1015" s="3">
+        <v>141.5</v>
+      </c>
+      <c r="N1015" s="3">
+        <v>58.353879999999997</v>
+      </c>
+      <c r="O1015" s="3">
+        <v>58.473939999999999</v>
+      </c>
+      <c r="P1015" s="3">
+        <v>42.932000000000002</v>
+      </c>
+      <c r="Q1015" s="3">
+        <v>45.258000000000003</v>
+      </c>
+      <c r="R1015" s="3">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1016" s="2">
         <v>44076</v>
       </c>
-      <c r="L1016">
+      <c r="B1016" s="3">
+        <v>209.3</v>
+      </c>
+      <c r="C1016" s="3">
+        <v>85.22</v>
+      </c>
+      <c r="D1016" s="3">
+        <v>199.9</v>
+      </c>
+      <c r="E1016" s="3">
+        <v>86.81</v>
+      </c>
+      <c r="F1016" s="3">
+        <v>115.3</v>
+      </c>
+      <c r="G1016" s="3">
+        <v>105.1</v>
+      </c>
+      <c r="H1016" s="3">
+        <v>164.1</v>
+      </c>
+      <c r="I1016" s="3">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="J1016" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="K1016" s="3">
+        <v>73.78</v>
+      </c>
+      <c r="L1016" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1016" s="3">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="N1016" s="3">
+        <v>58.338439999999999</v>
+      </c>
+      <c r="O1016" s="3">
+        <v>58.471260000000001</v>
+      </c>
+      <c r="P1016" s="3">
+        <v>41.841999999999999</v>
+      </c>
+      <c r="Q1016" s="3">
+        <v>43.06</v>
+      </c>
+      <c r="R1016" s="3">
+        <v>2.222</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1017" s="2">
         <v>44083</v>
       </c>
-      <c r="L1017">
+      <c r="B1017" s="3">
+        <v>209</v>
+      </c>
+      <c r="C1017" s="3">
+        <v>85.05</v>
+      </c>
+      <c r="D1017" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="E1017" s="3">
+        <v>87.41</v>
+      </c>
+      <c r="F1017" s="3">
+        <v>113.1</v>
+      </c>
+      <c r="G1017" s="3">
+        <v>103.3</v>
+      </c>
+      <c r="H1017" s="3">
+        <v>162.1</v>
+      </c>
+      <c r="I1017" s="3">
+        <v>147.9</v>
+      </c>
+      <c r="J1017" s="3">
+        <v>112.4</v>
+      </c>
+      <c r="K1017" s="3">
+        <v>74.209999999999894</v>
+      </c>
+      <c r="L1017" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1017" s="3">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="N1017" s="3">
+        <v>58.360424999999999</v>
+      </c>
+      <c r="O1017" s="3">
+        <v>58.476424999999999</v>
+      </c>
+      <c r="P1017" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="Q1017" s="3">
+        <v>39.746666670000003</v>
+      </c>
+      <c r="R1017" s="3">
+        <v>2.2109999999999999</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1018" s="2">
         <v>44090</v>
       </c>
-      <c r="L1018">
+      <c r="B1018" s="3">
+        <v>206.8</v>
+      </c>
+      <c r="C1018" s="3">
+        <v>83.069999999999894</v>
+      </c>
+      <c r="D1018" s="3">
+        <v>198.3</v>
+      </c>
+      <c r="E1018" s="3">
+        <v>85.43</v>
+      </c>
+      <c r="F1018" s="3">
+        <v>109.9</v>
+      </c>
+      <c r="G1018" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="H1018" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="I1018" s="3">
+        <v>145.4</v>
+      </c>
+      <c r="J1018" s="3">
+        <v>111.6</v>
+      </c>
+      <c r="K1018" s="3">
+        <v>73.52</v>
+      </c>
+      <c r="L1018" s="3">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1018" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="N1018" s="3">
+        <v>58.377699999999997</v>
+      </c>
+      <c r="O1018" s="3">
+        <v>58.480699999999999</v>
+      </c>
+      <c r="P1018" s="3">
+        <v>35.932711648582703</v>
+      </c>
+      <c r="Q1018" s="3">
+        <v>38.278150721051901</v>
+      </c>
+      <c r="R1018" s="3">
+        <v>2.2000544554455401</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1019" s="2">
         <v>44097</v>
       </c>
@@ -42447,7 +43072,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1020" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1020" s="2">
         <v>44104</v>
       </c>
@@ -42455,7 +43080,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1021" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1021" s="2">
         <v>44111</v>
       </c>
@@ -42463,7 +43088,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1022" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1022" s="2">
         <v>44118</v>
       </c>
@@ -42471,7 +43096,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1023" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1023" s="2">
         <v>44125</v>
       </c>
@@ -42479,7 +43104,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1024" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1024" s="2">
         <v>44132</v>
       </c>
